--- a/Memoria/Presupuesto.xlsx
+++ b/Memoria/Presupuesto.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ASTI2022\TFG_software\Memoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB4641-F12F-4EFE-A4F5-2481B8BF4BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A4A8CE-033F-4D68-81C0-974741396249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="1950" windowWidth="29460" windowHeight="11385" xr2:uid="{0A05AE26-1BAC-4CB9-8565-36377A6165D4}"/>
+    <workbookView xWindow="0" yWindow="4095" windowWidth="29460" windowHeight="11385" xr2:uid="{0A05AE26-1BAC-4CB9-8565-36377A6165D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>Partida</t>
   </si>
@@ -99,9 +100,6 @@
   </si>
   <si>
     <t>2.3</t>
-  </si>
-  <si>
-    <t>Mano de obra</t>
   </si>
   <si>
     <t xml:space="preserve">Tornillería </t>
@@ -195,6 +193,39 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Mano de obra impresión</t>
+  </si>
+  <si>
+    <t>Mano de obra diseño</t>
+  </si>
+  <si>
+    <t>Mano de obra fabricación</t>
+  </si>
+  <si>
+    <t>Mano de obra montaje</t>
+  </si>
+  <si>
+    <t>Mano de obra programación</t>
+  </si>
+  <si>
+    <t>Mano de obra ensayos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo </t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Fungible</t>
+  </si>
+  <si>
+    <t>Inventariable</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -275,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -284,6 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2EA8A7-1F5A-4A55-A9B8-2512B705856F}">
-  <dimension ref="B3:F40"/>
+  <dimension ref="B3:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,9 +641,10 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,13 +655,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -638,24 +674,30 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5">
         <v>15</v>
       </c>
       <c r="F5" s="5">
         <f>D5*E5</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -665,8 +707,11 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -676,8 +721,11 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -692,8 +740,11 @@
         <f>D8*E8</f>
         <v>85.92</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -708,8 +759,11 @@
         <f t="shared" ref="F9:F10" si="0">D9*E9</f>
         <v>117.38</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -724,8 +778,11 @@
         <f t="shared" si="0"/>
         <v>58.08</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -735,8 +792,11 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
         <v>14</v>
@@ -751,8 +811,11 @@
         <f>D12*E12</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -764,397 +827,523 @@
         <v>45.46</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ref="F13:F14" si="1">D13*E13</f>
+        <f t="shared" ref="F13:F16" si="1">D13*E13</f>
         <v>45.46</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5">
-        <v>90</v>
+        <v>2.5</v>
       </c>
       <c r="E14" s="5">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>37.5</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5">
+        <v>40</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="5">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E16" s="5">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="F16" s="5">
-        <f>D16*E16</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>12.99</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" ref="F17:F19" si="2">D17*E17</f>
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <f>D18*E18</f>
+        <v>10</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
+        <v>12.99</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19:F21" si="2">D19*E19</f>
+        <v>12.99</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
         <v>21.99</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F20" s="5">
         <f t="shared" si="2"/>
         <v>21.99</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="G20" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5">
         <v>90</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E21" s="5">
         <v>15</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F21" s="5">
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="G21" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>144.99</v>
-      </c>
-      <c r="F22" s="5">
-        <f>E22*D22</f>
-        <v>144.99</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>15.74</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" ref="F23:F27" si="3">E23*D23</f>
-        <v>15.74</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>144.99</v>
+      </c>
+      <c r="F24" s="5">
+        <f>E24*D24</f>
+        <v>144.99</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>15.74</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25:F29" si="3">E25*D25</f>
+        <v>15.74</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5">
         <v>4</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E26" s="5">
         <v>16.25</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F26" s="5">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="G26" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5">
         <v>20</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E27" s="5">
         <v>2.13</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F27" s="5">
         <f t="shared" si="3"/>
         <v>42.599999999999994</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="G27" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E28" s="5">
         <v>40.47</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F28" s="5">
         <f t="shared" si="3"/>
         <v>40.47</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="G28" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E29" s="5">
         <v>1.37</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F29" s="5">
         <f t="shared" si="3"/>
         <v>4.1100000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="G29" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5">
-        <v>49.78</v>
-      </c>
-      <c r="F29" s="5">
-        <f>D29*E29</f>
-        <v>49.78</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="5">
-        <v>5</v>
-      </c>
-      <c r="E30" s="5">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" ref="F30:F31" si="4">D30*E30</f>
-        <v>46.050000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
       <c r="E31" s="5">
+        <v>49.78</v>
+      </c>
+      <c r="F31" s="5">
+        <f>D31*E31</f>
+        <v>49.78</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="5">
         <v>5</v>
       </c>
-      <c r="F31" s="5">
+      <c r="E32" s="5">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:F33" si="4">D32*E32</f>
+        <v>46.050000000000004</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="G33" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="5">
-        <v>45</v>
-      </c>
-      <c r="E33" s="5">
-        <v>15</v>
-      </c>
-      <c r="F33" s="5">
-        <f>D33*E33</f>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D35" s="5">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E35" s="5">
         <v>15</v>
       </c>
       <c r="F35" s="5">
         <f>D35*E35</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D37" s="5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E37" s="5">
         <v>15</v>
       </c>
       <c r="F37" s="5">
         <f>D37*E37</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D39" s="5">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E39" s="5">
         <v>15</v>
       </c>
       <c r="F39" s="5">
         <f>D39*E39</f>
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="7">
-        <f>SUM(F4:F39)</f>
-        <v>6664.56</v>
+        <v>525</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="5">
+        <v>70</v>
+      </c>
+      <c r="E41" s="5">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5">
+        <f>D41*E41</f>
+        <v>1050</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="7">
+        <f>SUM(F4:F41)</f>
+        <v>6102.06</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="260" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C61A12A-038D-4F09-BFB0-DE324DB08D56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>